--- a/bots/crawl_ch/output/vegi_coop_2023-02-11.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-11.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7640,7 +7640,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8040,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10455,7 +10455,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11346,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12000,7 +12000,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12203,24 +12203,24 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4240373</t>
+          <t>6660162</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Artischocke 1 Stück</t>
+          <t>Naturaplan Bio Feigen</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-artischocke-1-stueck/p/4240373</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-feigen/p/6660162</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -12236,12 +12236,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.74/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12261,35 +12261,35 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Artischocke 1 Stück 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Feigen 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6660162</t>
+          <t>4240373</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Feigen</t>
+          <t>Naturaplan Bio Artischocke 1 Stück</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-feigen/p/6660162</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-artischocke-1-stueck/p/4240373</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -12305,12 +12305,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>1.74/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12330,18 +12330,18 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Feigen 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Artischocke 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12905,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13181,7 +13181,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13668,7 +13668,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14159,7 +14159,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14374,7 +14374,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14778,7 +14778,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14916,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15123,7 +15123,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15338,28 +15338,28 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6241817</t>
+          <t>3388940</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Naturaplan Demeter Bio Kartoffeln</t>
+          <t>Betty Bossi Mischsalat</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-demeter-bio-kartoffeln/p/6241817</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -15371,12 +15371,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0.37/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15396,56 +15396,56 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Naturaplan Demeter Bio Kartoffeln 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr"/>
+          <t>Betty Bossi Mischsalat 4.45 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3388940</t>
+          <t>3091229</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat</t>
+          <t>Cicorino Trevisana ca. 500g</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/cicorino-trevisana-ca/p/3091229</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>0.50/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15465,56 +15465,56 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat 4.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Cicorino Trevisana ca. 500g 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>3091229</t>
+          <t>6241817</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cicorino Trevisana ca. 500g</t>
+          <t>Naturaplan Demeter Bio Kartoffeln</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/cicorino-trevisana-ca/p/3091229</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-demeter-bio-kartoffeln/p/6241817</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
       </c>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>0.50/100g</t>
+          <t>0.37/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -15524,7 +15524,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15534,18 +15534,18 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Cicorino Trevisana ca. 500g 2.50 Schweizer Franken</t>
+          <t>Naturaplan Demeter Bio Kartoffeln 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15610,7 +15610,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15679,7 +15679,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15742,7 +15742,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15807,7 +15807,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15880,7 +15880,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16026,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17063,7 +17063,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17201,7 +17201,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17270,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17339,7 +17339,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17408,7 +17408,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17477,7 +17477,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17619,7 +17619,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -17828,45 +17828,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3091461</t>
+          <t>3385979</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh</t>
+          <t>Naturaplan Bio Mischsalat</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -17876,7 +17876,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -17886,116 +17886,108 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>3385979</t>
+          <t>6293683</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat</t>
+          <t>Artischocke 1 Stück</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>5</v>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>1.75/1ST</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Artischocke 1 Stück 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6293683</t>
+          <t>3413719</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück</t>
+          <t>Kresse</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/kresse/p/3413719</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E258" t="n">
         <v>4.5</v>
@@ -18003,77 +17995,85 @@
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.75/1ST</t>
+          <t>3.90/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr"/>
+          <t>Kresse 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>3413719</t>
+          <t>3091461</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kresse</t>
+          <t>Schöni Sauerkraut roh</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/kresse/p/3413719</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E259" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F259" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Schöni</t>
+        </is>
+      </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>3.90/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18093,154 +18093,154 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Kresse 1.95 Schweizer Franken</t>
+          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6308958</t>
+          <t>7107447</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Sweetie weiss 1 Stück</t>
+          <t>Pro Specie Rara Karotten Gniff</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/sweetie-weiss-1-stueck/p/6308958</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
-        <v>5</v>
-      </c>
-      <c r="F260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Sweetie weiss 1 Stück 2.95 Schweizer Franken</t>
+          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>7107447</t>
+          <t>6308958</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff</t>
+          <t>Sweetie weiss 1 Stück</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/sweetie-weiss-1-stueck/p/6308958</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>4</v>
+      </c>
       <c r="E261" t="n">
-        <v>0</v>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
+          <t>Sweetie weiss 1 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18597,7 +18597,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18660,7 +18660,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat +20% gratis Aktion 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand +20% gratis Aktion 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -18735,45 +18735,41 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6868469</t>
+          <t>7003348</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g</t>
+          <t>Spargel Broccoli Bimi</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>5</v>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -18783,7 +18779,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -18793,56 +18789,52 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargel Broccoli Bimi 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7003348</t>
+          <t>6300714</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi</t>
+          <t>Mischpilze geschnitten</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
         </is>
       </c>
       <c r="D270" t="n">
+        <v>2</v>
+      </c>
+      <c r="E270" t="n">
         <v>5</v>
-      </c>
-      <c r="E270" t="n">
-        <v>4.5</v>
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -18852,7 +18844,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -18862,190 +18854,198 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi 2.95 Schweizer Franken</t>
+          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6300714</t>
+          <t>6471640</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E271" t="n">
-        <v>5</v>
-      </c>
-      <c r="F271" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6471640</t>
+          <t>6711893</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
+          <t>Wild Foods Wood Smoked</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WILD FOODS</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>6.88/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N272" t="inlineStr"/>
+          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6711893</t>
+          <t>4184522</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked</t>
+          <t>Délicorn Tivall vegetarisch Geschnetzeltes</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-tivall-vegetarisch-geschnetzeltes/p/4184522</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E273" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>WILD FOODS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>6.88/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19065,46 +19065,46 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
+          <t>Délicorn Tivall vegetarisch Geschnetzeltes 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4184522</t>
+          <t>6431571</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Délicorn Tivall vegetarisch Geschnetzeltes</t>
+          <t>Schweizer Dörrbohnen</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-tivall-vegetarisch-geschnetzeltes/p/4184522</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E274" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19113,12 +19113,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19138,60 +19138,56 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Délicorn Tivall vegetarisch Geschnetzeltes 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6877729</t>
+          <t>6868469</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Planted curry</t>
+          <t>Yolo Crispy Burger 2x100g</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E275" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19201,7 +19197,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19211,12 +19207,12 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Planted curry 5.95 Schweizer Franken</t>
+          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -19226,45 +19222,45 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6431571</t>
+          <t>6877729</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen</t>
+          <t>Planted curry</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E276" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19274,7 +19270,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19284,18 +19280,22 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N276" t="inlineStr"/>
+          <t>Planted curry 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -19368,31 +19368,29 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6803514</t>
+          <t>6714133</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack</t>
+          <t>Naturaplan Bio Kiwi</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -19401,12 +19399,12 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -19416,7 +19414,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19426,43 +19424,39 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kiwi 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4904253</t>
+          <t>6803514</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischpilze</t>
+          <t>Prix Garantie veganes Hack</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-mischpilze/p/4904253</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -19474,12 +19468,12 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -19489,7 +19483,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19499,42 +19493,46 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischpilze 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr"/>
+          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>4904253</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Naturaplan Bio Mischpilze</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-mischpilze/p/4904253</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E280" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -19543,12 +19541,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -19558,7 +19556,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19568,56 +19566,56 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Mischpilze 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4227197</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E281" t="n">
-        <v>4</v>
-      </c>
-      <c r="F281" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19627,7 +19625,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19637,56 +19635,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr"/>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6794616</t>
+          <t>4227197</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E282" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -19696,7 +19694,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19706,22 +19704,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -19790,35 +19784,31 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6714133</t>
+          <t>7002845</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi</t>
+          <t>Kartoffeln rote Linie IP-Suisse</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
         <v>0</v>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
           <t>3.95</t>
@@ -19826,139 +19816,145 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>1.58/1kg</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 3.95 Schweizer Franken</t>
+          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>7002845</t>
+          <t>4903240</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse</t>
+          <t>Fairtrade Papaya 1 Stück</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-papaya-1-stueck/p/4903240</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>56</v>
+      </c>
       <c r="E285" t="n">
-        <v>0</v>
-      </c>
-      <c r="F285" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.58/1kg</t>
+          <t>2.70/1ST</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
+          <t>Fairtrade Papaya 1 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6744335</t>
+          <t>6794616</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Veg Pastrami</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/veg-pastrami/p/6744335</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E286" t="n">
         <v>4.5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>LIVEG</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>4.67/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -19968,7 +19964,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -19978,91 +19974,95 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Veg Pastrami 4.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>4903240</t>
+          <t>6744335</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück</t>
+          <t>Veg Pastrami</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-papaya-1-stueck/p/4903240</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/veg-pastrami/p/6744335</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E287" t="n">
         <v>4.5</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>LIVEG</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2.70/1ST</t>
+          <t>4.67/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N287" t="inlineStr"/>
+          <t>Veg Pastrami 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20131,7 +20131,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20200,7 +20200,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20411,7 +20411,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20476,7 +20476,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20549,7 +20549,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20614,7 +20614,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20681,7 +20681,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20750,7 +20750,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20819,7 +20819,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20888,7 +20888,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21026,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21091,7 +21091,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21164,7 +21164,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21237,33 +21237,37 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6066967</t>
+          <t>6816547</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tomaten Monte Rosa ca. 1kg</t>
+          <t>Outlawz Food pflanzliche Speck Würfel</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-monte-rosa-ca/p/6066967</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-pflanzliche-speck-wuerfel/p/6816547</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F305" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>OUTLAWZ Food</t>
+        </is>
+      </c>
       <c r="G305" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -21271,68 +21275,68 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>5.41/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Tomaten Monte Rosa ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr"/>
+          <t>Outlawz Food pflanzliche Speck Würfel 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6816547</t>
+          <t>6066967</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Outlawz Food pflanzliche Speck Würfel</t>
+          <t>Tomaten Monte Rosa ca. 1kg</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-pflanzliche-speck-wuerfel/p/6816547</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-monte-rosa-ca/p/6066967</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>OUTLAWZ Food</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -21340,42 +21344,38 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>5.41/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Outlawz Food pflanzliche Speck Würfel 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Tomaten Monte Rosa ca. 1kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21586,7 +21586,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21724,7 +21724,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21797,7 +21797,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21870,7 +21870,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -21939,7 +21939,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22154,7 +22154,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22227,7 +22227,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22373,7 +22373,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22515,7 +22515,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22588,7 +22588,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22655,7 +22655,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22797,7 +22797,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22870,7 +22870,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -22939,7 +22939,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -23012,7 +23012,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -23085,45 +23085,45 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6798810</t>
+          <t>4542971</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Filet</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-filet/p/6798810</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E331" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23143,60 +23143,60 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Filet 8.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6723054</t>
+          <t>6798810</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g</t>
+          <t>The Green Mountain plant-based Filet</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-hot-dog-sausages-4x40g/p/6723054</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-filet/p/6798810</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23206,7 +23206,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23216,12 +23216,12 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Filet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -23231,31 +23231,31 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>4542971</t>
+          <t>6143544</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/4542971</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -23264,12 +23264,12 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>1.43/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -23294,7 +23294,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -23304,45 +23304,45 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6143544</t>
+          <t>6723054</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
+          <t>Yolo Hot Dog Sausages 4x40g</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-hot-dog-sausages-4x40g/p/6723054</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E334" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>1.43/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -23362,60 +23362,60 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
+          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3668907</t>
+          <t>6580121</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel rote Sorte 750g</t>
+          <t>The Green Mountain plant-based Burger</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-rote-sorte/p/3668907</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/the-green-mountain-plant-based-burger/p/6580121</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E335" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -23425,7 +23425,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -23435,56 +23435,60 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel rote Sorte 750g 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N335" t="inlineStr"/>
+          <t>The Green Mountain plant-based Burger 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6580121</t>
+          <t>6079008</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Burger</t>
+          <t>Simply V Reibegenuss</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/the-green-mountain-plant-based-burger/p/6580121</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E336" t="n">
         <v>4.5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Simply V</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23494,7 +23498,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -23504,60 +23508,60 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Burger 6.95 Schweizer Franken</t>
+          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6079008</t>
+          <t>3668907</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss</t>
+          <t>Naturaplan Bio Äpfel rote Sorte 750g</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-rote-sorte/p/3668907</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E337" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Simply V</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23567,7 +23571,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -23577,22 +23581,18 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Äpfel rote Sorte 750g 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -23665,45 +23665,45 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>7032051</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bulgursalat</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-bulgursalat/p/7032051</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23713,7 +23713,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -23723,60 +23723,60 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bulgursalat 4.95 Schweizer Franken</t>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>7048923</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Garden Gourmet Sensational Schnitzel</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E340" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -23786,7 +23786,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -23796,60 +23796,60 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Schnitzel 25% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>7048923</t>
+          <t>7032051</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel</t>
+          <t>Naturaplan Bio Bulgursalat</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-bulgursalat/p/7032051</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23859,7 +23859,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -23869,12 +23869,12 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel 25% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Bulgursalat 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -23949,7 +23949,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24014,7 +24014,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24087,7 +24087,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24379,7 +24379,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24452,7 +24452,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24521,7 +24521,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24572,31 +24572,31 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>6892315</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Rosenkohl gerüstet</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-geruestet/p/6892315</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E352" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -24605,12 +24605,12 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -24620,7 +24620,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -24630,46 +24630,42 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Rosenkohl gerüstet 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6892315</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Rosenkohl gerüstet</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-geruestet/p/6892315</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E353" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -24678,12 +24674,12 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -24693,7 +24689,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -24703,18 +24699,22 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Rosenkohl gerüstet 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr"/>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24852,7 +24852,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -24998,7 +24998,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25138,7 +25138,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25284,7 +25284,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25357,7 +25357,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25499,7 +25499,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25716,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -25850,45 +25850,45 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6881493</t>
+          <t>6464980</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici</t>
+          <t>Naturaplan Bio Passionsfrucht ca. 200g</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/naturaplan-bio-passionsfrucht-ca/p/6464980</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E370" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -25908,60 +25908,56 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Passionsfrucht ca. 200g 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6464980</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Passionsfrucht ca. 200g</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/naturaplan-bio-passionsfrucht-ca/p/6464980</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E371" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.14/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25971,7 +25967,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -25981,56 +25977,60 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Passionsfrucht ca. 200g 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>6881493</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Yolo Cevapcici</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.14/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26040,7 +26040,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26050,12 +26050,12 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
+          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -26065,37 +26065,33 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4160317</t>
+          <t>6564002</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g</t>
+          <t>Radicchio di Treviso</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E373" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -26103,7 +26099,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26113,7 +26109,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26123,48 +26119,48 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6564002</t>
+          <t>4160317</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso</t>
+          <t>Délicorn BBQ Grillsteak 2 x100g</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/delicorn-bbq-grillsteak-2-x100g/p/4160317</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E374" t="n">
-        <v>4</v>
-      </c>
-      <c r="F374" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G374" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -26172,7 +26168,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26182,7 +26178,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26192,18 +26188,22 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Délicorn BBQ Grillsteak 2 x100g 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26274,7 +26274,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26489,7 +26489,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26562,7 +26562,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26708,7 +26708,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26903,7 +26903,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -26972,24 +26972,24 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6984842</t>
+          <t>4227096</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore</t>
+          <t>Cima di Rapa</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -26998,19 +26998,15 @@
       <c r="E386" t="n">
         <v>1</v>
       </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27020,7 +27016,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27030,56 +27026,52 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>4227096</t>
+          <t>7102073</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cima di Rapa</t>
+          <t>Baumnüsse</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/cima-di-rapa/p/4227096</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27089,7 +27081,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27099,52 +27091,56 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Cima di Rapa 2.95 Schweizer Franken</t>
+          <t>Baumnüsse 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7102073</t>
+          <t>6984842</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Baumnüsse</t>
+          <t>Betty Bossi insalata tricolore</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>3</v>
-      </c>
-      <c r="F388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27154,7 +27150,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27164,18 +27160,22 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Baumnüsse 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27248,7 +27248,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27317,7 +27317,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27382,7 +27382,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27451,7 +27451,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27524,7 +27524,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27593,7 +27593,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27662,7 +27662,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27735,7 +27735,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27808,7 +27808,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -27954,7 +27954,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28019,7 +28019,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28084,7 +28084,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28230,7 +28230,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28295,7 +28295,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28368,7 +28368,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28441,7 +28441,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28508,7 +28508,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28650,7 +28650,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28796,7 +28796,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28849,7 +28849,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28916,7 +28916,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -28981,7 +28981,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29123,7 +29123,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29192,7 +29192,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29265,7 +29265,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29334,7 +29334,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29405,7 +29405,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29472,7 +29472,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29537,7 +29537,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29610,7 +29610,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29673,7 +29673,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29819,7 +29819,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29892,7 +29892,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -29959,45 +29959,45 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>The Green Mountain plant-based Tranchen vegan</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D429" t="n">
         <v>5</v>
       </c>
       <c r="E429" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -30007,7 +30007,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -30017,60 +30017,60 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>5668660</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan</t>
+          <t>Délicorn Spacebar</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
         </is>
       </c>
       <c r="D430" t="n">
         <v>5</v>
       </c>
       <c r="E430" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.88/100g</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30090,22 +30090,22 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30176,45 +30176,45 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>7071611</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet</t>
+          <t>Yolo Salami Snack Sausages</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -30224,7 +30224,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -30234,60 +30234,60 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>7071611</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages</t>
+          <t>The Green Mountain plant-based Pfefferfilet</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-pfefferfilet/p/6987208</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -30297,7 +30297,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -30307,22 +30307,22 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Pfefferfilet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30395,7 +30395,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30468,7 +30468,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30541,7 +30541,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30687,7 +30687,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30811,7 +30811,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -30878,41 +30878,45 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>3947304</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tamarinde</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E442" t="n">
         <v>3.5</v>
       </c>
-      <c r="F442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -30922,7 +30926,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -30932,56 +30936,56 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>Tamarinde 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N442" t="inlineStr"/>
+          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>3947304</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Tamarinde</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E443" t="n">
         <v>3.5</v>
       </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -30991,7 +30995,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -31001,22 +31005,18 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N443" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Tamarinde 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31156,7 +31156,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31302,7 +31302,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31513,7 +31513,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31582,7 +31582,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31655,7 +31655,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31728,7 +31728,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31801,7 +31801,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31870,7 +31870,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -31941,7 +31941,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32010,7 +32010,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32083,7 +32083,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32156,7 +32156,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32225,7 +32225,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32296,7 +32296,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32363,7 +32363,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32428,7 +32428,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32499,7 +32499,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32572,7 +32572,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32637,7 +32637,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32708,7 +32708,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32779,7 +32779,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32848,7 +32848,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32919,7 +32919,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
@@ -32986,7 +32986,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-11 12:57:00</t>
+          <t>2023-02-11 20:51:40</t>
         </is>
       </c>
     </row>
